--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_122_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_122_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.868849135506596, 4.469652855458446]</t>
+          <t>[3.8694260477266873, 4.469075943238355]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.09676973222536356, 0.4065655966885955]</t>
+          <t>[0.09676833993729872, 0.4065669889766603]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.002052600775888536</v>
+        <v>0.002052772879020726</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002052600775888536</v>
+        <v>0.002052772879020726</v>
       </c>
       <c r="W2" t="n">
         <v>3.294054054054154</v>
